--- a/QA.xlsx
+++ b/QA.xlsx
@@ -1,27 +1,463 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548496A5-8997-458A-ABF0-6B7621D7067C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="144">
+  <si>
+    <t xml:space="preserve">question		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answer		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero form question		</t>
+  </si>
+  <si>
+    <t>бизнес информатика</t>
+  </si>
+  <si>
+    <t>Сайт программы: https://www.hse.ru/ba/bi/
+Группа вконтакте: https://vk.com/bihse</t>
+  </si>
+  <si>
+    <t>согласие зачисление почта</t>
+  </si>
+  <si>
+    <t>https://ba.hse.ru/spd2017#docs</t>
+  </si>
+  <si>
+    <t>экономика адрес москва</t>
+  </si>
+  <si>
+    <t>ул. Шаболовка, д. 26, стр. 3</t>
+  </si>
+  <si>
+    <t>фотография почта</t>
+  </si>
+  <si>
+    <t>Как хотите – можете сразу, можете при зачислении, это влияет только на скорость получения студенческого.</t>
+  </si>
+  <si>
+    <t>электронный очередь необходимость</t>
+  </si>
+  <si>
+    <t>Электронная регистрация необязательна.</t>
+  </si>
+  <si>
+    <t>олимпиада наличие место</t>
+  </si>
+  <si>
+    <t>https://www.hse.ru/news/admission/207309281.html</t>
+  </si>
+  <si>
+    <t>личный кабинет абитуриент выходной</t>
+  </si>
+  <si>
+    <t>Прием заявок и обработка данных происходит только в будние дни. А также бывает технологический перерыв в работе личного кабинета по воскресеньям.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">портфолио формат файл </t>
+  </si>
+  <si>
+    <t>Скорее всего, это не имеет особого значения. Но не забывайте, что один файл PDF не должен превышать 10 мб.</t>
+  </si>
+  <si>
+    <t>список абитуриент санкт-петербург санкт- петербург</t>
+  </si>
+  <si>
+    <t>https://spb.hse.ru/ba/naimlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">телефон приемной комиссия </t>
+  </si>
+  <si>
+    <t>Тел. (495) 771-32-42, (495) 916-88-44. Электронный адрес pkmag@hse.ru</t>
+  </si>
+  <si>
+    <t>вступительный испытание результат</t>
+  </si>
+  <si>
+    <t>Объявление результатов будет 19 июля https://ba.hse.ru/rasp2017_media</t>
+  </si>
+  <si>
+    <t>студенческий билет дата</t>
+  </si>
+  <si>
+    <t>Если вы сдали фотографию в Приемную комиссию, то 1 сентября. Если нет, то только после того, как принесете в учебный офис фотографию.</t>
+  </si>
+  <si>
+    <t>список абитуриент</t>
+  </si>
+  <si>
+    <t>https://ba.hse.ru/base2018</t>
+  </si>
+  <si>
+    <t>договор деньги</t>
+  </si>
+  <si>
+    <t>dogovor@hse.ru</t>
+  </si>
+  <si>
+    <t>военный кафедра</t>
+  </si>
+  <si>
+    <t>Вся информация о поступлении на военную кафедру https://www.hse.ru/org/hse/ouk/mil/abiturient</t>
+  </si>
+  <si>
+    <t>дата сдача оригинал</t>
+  </si>
+  <si>
+    <t>Все сроки есть здесь https://ba.hse.ru/entr2018. Последний день приема оригиналов аттестата и согласия на зачисление для последнего этапа зачисления - 6 августа.</t>
+  </si>
+  <si>
+    <t>скидка</t>
+  </si>
+  <si>
+    <t>https://www.hse.ru/studyspravka/Skidki</t>
+  </si>
+  <si>
+    <t>расписание социология</t>
+  </si>
+  <si>
+    <t>https://www.hse.ru/ba/soc/timetable</t>
+  </si>
+  <si>
+    <t>приказ зачисление платный основа</t>
+  </si>
+  <si>
+    <t>Зачисление происходит в два этапа: приказы будут опубликованы 10 и 18 августа соответственно.</t>
+  </si>
+  <si>
+    <t>расписание факультет менеджмент управление бизнес</t>
+  </si>
+  <si>
+    <t>Расписания занятий на странице программы пока нет. Возможно это связано с тем, что программа новая. Можем лишь посоветовать поизучать учебный план (https://www.hse.ru/ba/bba/learn_plans/) или на всякий случай связаться с менеджером.</t>
+  </si>
+  <si>
+    <t>окончательный список поступать</t>
+  </si>
+  <si>
+    <t>Списки поступающих, ранжированные по убыванию баллов, полученных за вступительные испытания, появятся на сайте ВШЭ 7 августа.</t>
+  </si>
+  <si>
+    <t>экзамен английский словарь</t>
+  </si>
+  <si>
+    <t>Пользоваться словарём на экзамене нельзя.</t>
+  </si>
+  <si>
+    <t>число предоставлять подлинник диплом</t>
+  </si>
+  <si>
+    <t>Оригинал нужно предоставить в приемную комиссию до 10 августа.</t>
+  </si>
+  <si>
+    <t>график работа приемный комиссия</t>
+  </si>
+  <si>
+    <t>https://ba.hse.ru/graf2018</t>
+  </si>
+  <si>
+    <t>перезаключать договор другой лицо</t>
+  </si>
+  <si>
+    <t>Такая опция должна быть доступна. Но лучше уточнить в отделе договоров. Напишите, пожалуйста, на dogovor@hse.ru или зайдите в кабинет 238 на Мясницкой, 20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">результат конкурс портфолио управление информационный безопасность </t>
+  </si>
+  <si>
+    <t>Не позднее 1 августа, когда будет объявление результатов портфолио https://ma.hse.ru/ma_rasp2018.</t>
+  </si>
+  <si>
+    <t>маркетинг результат профильный экзамен</t>
+  </si>
+  <si>
+    <t>Согласно регламенту, результаты письменных испытаний должны быть известны не позднее трех рабочих дней после экзамена.</t>
+  </si>
+  <si>
+    <t>аннулировать работа</t>
+  </si>
+  <si>
+    <t>Аннулировать работу могут только на экзамене с составлением акта об удалении и аннулировании, если абитуриент нарушил правила из регламента по проведению вступительных испытаний. А после проведения экзамена оценку "0" можно получить только из-за содержания работы.</t>
+  </si>
+  <si>
+    <t>приносить фотография</t>
+  </si>
+  <si>
+    <t>Студенческими билетами занимается учебный офис, поэтому предоставить фотографии нужно именно туда; с согласием на зачисление и аттестатом не приносите. По срокам сдачи лучше уточнить у менеджера программы (нередко эта информация размещается и на странице ОП)</t>
+  </si>
+  <si>
+    <t>оплата производить сразу или в течение несколько сутки</t>
+  </si>
+  <si>
+    <t>В течение трёх рабочих дней.</t>
+  </si>
+  <si>
+    <t>результат вступительный экзамен экономика финансовый инжиниринг</t>
+  </si>
+  <si>
+    <t>Cогласно регламенту, результаты письменных испытаний объявляют не позднее третьего рабочего дня после их проведения. Доступны они будут здесь: https://ma.hse.ru/resultmag2017.</t>
+  </si>
+  <si>
+    <t>возможность в личный кабинет просматривать свой ответ и быть ли опубликовывать правильный ответ</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Ваши ответы и правильные ответы можно будет узнать на показе работ, в личном кабинете они не публикуются.</t>
+  </si>
+  <si>
+    <t>результат экзамен в магистратура корпоративный право</t>
+  </si>
+  <si>
+    <t>На сайте не указан день показа работ, соответственно, это может быть любой день, но не позже 7 августа, когда появятся итоговые результаты для всех программ.</t>
+  </si>
+  <si>
+    <t>предварительный список</t>
+  </si>
+  <si>
+    <t>Ранжированные списки будут 7 августа. Пока на сайте можно ознакомиться с результатами экзаменов.</t>
+  </si>
+  <si>
+    <t>корпоративный финансы</t>
+  </si>
+  <si>
+    <t>Сейчас на сайте ВШЭ, к сожалению, временные неполадки. Но как только он заработает, вы сможете посмотреть на сайте программы расписание учёбы: https://www.hse.ru/ma/cf/ Из него и узнаете, когда первый день.</t>
+  </si>
+  <si>
+    <t>число приносить оригинал</t>
+  </si>
+  <si>
+    <t>До 18 августа. Кстати, платникам необязательно отдавать оригинал. Можно принести его в приёмную комиссию и с него сделают копию, этого будет достаточно.</t>
+  </si>
+  <si>
+    <t>приказ зачисление платный</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Приказы начнут выходить после 10 августа и почти до самого конца месяца.</t>
+  </si>
+  <si>
+    <t>получать корпоративный почта</t>
+  </si>
+  <si>
+    <t>Логин и пароль выдают на организационном собрании первокурсников.</t>
+  </si>
+  <si>
+    <t>фотография дата</t>
+  </si>
+  <si>
+    <t>До приказа фотографию нужно принести в приемную комиссию, после - в учебный офис. Лучше сделать это до 1 сентября, чтобы сразу получить студенческий.</t>
+  </si>
+  <si>
+    <t>список зачислить контракт</t>
+  </si>
+  <si>
+    <t>Здравствуйте! В 10-х числах должны появиться по ссылке: https://ba.hse.ru/prikaz2017</t>
+  </si>
+  <si>
+    <t>расписание приемный комиссия</t>
+  </si>
+  <si>
+    <t>Часы работы
+Пн.–пт. с 10:00 до 17:00
+Сб., вс. — выходной</t>
+  </si>
+  <si>
+    <t>магистратура</t>
+  </si>
+  <si>
+    <t>Всё собрано тут: https://ma.hse.ru</t>
+  </si>
+  <si>
+    <t>час приемный комиссия в москва</t>
+  </si>
+  <si>
+    <t>https://ba.hse.ru/</t>
+  </si>
+  <si>
+    <t>студенческий билет корпоративный адрес электронный почта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В начале учебного года на оргсобрании первокурсников. Скорее всего, студенческий вам выдадут прямо на нем, если 2 фотографии 3х4 вы сдали или сдадите в приемную комиссию сейчас, а не в учебный офис позже осенью. </t>
+  </si>
+  <si>
+    <t>квалификационный экзамен</t>
+  </si>
+  <si>
+    <t>Здравствуйте. Это означает, что он оценивается по системе зачет/незачет.</t>
+  </si>
+  <si>
+    <t>заходить личный кабинет</t>
+  </si>
+  <si>
+    <t>Зарегестрироваться в нем: https://priem1.hse.ru/magabit.html#signin. Логин и пароль придут в течение 1 рабочего дня.</t>
+  </si>
+  <si>
+    <t>подавать бюджет платный на один направление</t>
+  </si>
+  <si>
+    <t>Да, возможно.</t>
+  </si>
+  <si>
+    <t>число заключать договор</t>
+  </si>
+  <si>
+    <t>Договор можно заключить с понедельника по пятницу с 10:00 до 17:30 в период с 02 июля по 20 августа 2018 г; дополнительно 04 августа с 10:00 до 17:00 по адресу: ул. Мясницкая, д.20, 2 этаж.</t>
+  </si>
+  <si>
+    <t>факультет социология группа вк</t>
+  </si>
+  <si>
+    <t>https://vk.com/hse.social</t>
+  </si>
+  <si>
+    <t>список поступать</t>
+  </si>
+  <si>
+    <t>вносить оплата обучение договор несколько платеж год</t>
+  </si>
+  <si>
+    <t>Здравствуйте. Возможно оплачивать обучение либо по семестрам, либо сразу за год.</t>
+  </si>
+  <si>
+    <t>рейтинг список среди абитуриент</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Вы можете найти интересующую информацию в базе абитуриент https://ba.hse.ru/base2018</t>
+  </si>
+  <si>
+    <t>обучение студенческий жизнь</t>
+  </si>
+  <si>
+    <t>https://vk.com/hse_abitur</t>
+  </si>
+  <si>
+    <t>день открытый дверь</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Только осенью https://ba.hse.ru/dod2018                           Но сейчас есть встречи с академическими руководителями во премя подачи документов. Расписание есть на сайте бакалавриата https://ba.hse.ru/meet2018 и магистратуры https://ma.hse.ru/magmeet2018</t>
+  </si>
+  <si>
+    <t>оргсобраний организационный собрание</t>
+  </si>
+  <si>
+    <t>Собрание, когда вас будут закомить с образовательной программой и выдвать студенческие. Должно появиться в вашем расписании.</t>
+  </si>
+  <si>
+    <t>ответ на демоверсия</t>
+  </si>
+  <si>
+    <t>Ответов на демоверсии нет.</t>
+  </si>
+  <si>
+    <t>проходная по английский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В основном проходной балл равен 41, но на некоторых программах он выше. </t>
+  </si>
+  <si>
+    <t>мотивациоть письмо</t>
+  </si>
+  <si>
+    <t>Внимательно ознакомьтесь с перечнем вступительных испытаний для интересующей вас программы:https://ma.hse.ru/vstupi_2018. В файле критериями портфолио должны быть требования к мотивационному письму — они разнятся от программы к программе. Если вопросы остались, обратитесь к менеджеру интересующей вас программы.</t>
+  </si>
+  <si>
+    <t>рейтинг поступать</t>
+  </si>
+  <si>
+    <t>Ранжированные списки будут 27 июля, пока пофамильные https://priem2.hse.ru/bachstats.html</t>
+  </si>
+  <si>
+    <t>стипендия</t>
+  </si>
+  <si>
+    <t>Информацию о стипендиях студентам можно найти здесь https://www.hse.ru/scholarships/students</t>
+  </si>
+  <si>
+    <t>иностранный бюджет</t>
+  </si>
+  <si>
+    <t>Да, могут по отдельному конкурсу для иностранных абитуриентов. Подробная информация здесь https://enter.hse.ru/</t>
+  </si>
+  <si>
+    <t>список зачислить коммерция платный</t>
+  </si>
+  <si>
+    <t>с 9 по 31. Вероятно, что непосредственно 9-го, если вы заключили договор уже давно</t>
+  </si>
+  <si>
+    <t>список проходить бюджет дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 августа после апелляций. </t>
+  </si>
+  <si>
+    <t>временный регистрация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если речь идёт об иностранных абитуриентах, то тут всё достаточно прозрачно - Вам поможет управление по работе со странами СНГ и Балтии: http://hse.ru/sng 
+Если же речь идёт о гражданах РФ, то тут действительно нужно идти в ФМС (иногда этот вопрос можно решить в МФЦ), но Вам придётся собирать некоторое количество документов, в том числе согласие собственника жилья. </t>
+  </si>
+  <si>
+    <t>электронный очередь</t>
+  </si>
+  <si>
+    <t>Запись в электронную очередь осуществляется через личный кабинет абитуриента на http://priem.hse.ru (на этой странице есть инструкция по работе с личным кабинетом)</t>
+  </si>
+  <si>
+    <t>комплект документ копия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хватает одного комплекта документов. https://ba.hse.ru/faq </t>
+  </si>
+  <si>
+    <t>поступление документ почта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда Ваша фамилия появится в базе на странице Https://ba.hse.ru </t>
+  </si>
+  <si>
+    <t>медкомиссия врач справка поступление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Медкомиссию при поступлении в ВШЭ проходить не требуется, справку 086-у тоже приносить не нужно. Вам понадобится медицинская справка для заселения в общежитие, но в этом случае будет достаточно обычной справки от терапевта. </t>
+  </si>
+  <si>
+    <t>изменять расторгнуть договор</t>
+  </si>
+  <si>
+    <t>Подробнее вас смогут проконсультировать на dogovor@hse.ru</t>
+  </si>
+  <si>
+    <t>проходной балл</t>
+  </si>
+  <si>
+    <t>Баллы на бюджет: https://ba.hse.ru/result2018
+Минимальные баллы: https://ba.hse.ru/minkrit2019</t>
+  </si>
+  <si>
+    <t>распределение абитуриент коммерция</t>
+  </si>
+  <si>
+    <t>Распределение студентов происходит случайным образом.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,18 +490,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -80,44 +508,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -144,15 +572,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -179,7 +606,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -191,153 +617,981 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QA.xlsx
+++ b/QA.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="145">
+  <si>
+    <t xml:space="preserve">ID		</t>
+  </si>
   <si>
     <t xml:space="preserve">question		</t>
   </si>
@@ -782,13 +785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -798,797 +801,1016 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
         <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
         <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
         <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
         <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
         <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
         <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
         <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
         <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
         <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
         <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
         <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
         <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
         <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
         <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
         <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
         <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
         <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
         <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
         <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
         <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
         <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>56</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
         <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
         <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
         <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
         <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
       </c>
       <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
         <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>62</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
         <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>63</v>
       </c>
       <c r="B34" t="s">
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
         <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
         <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>65</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
         <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>66</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
         <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>67</v>
       </c>
       <c r="B38" t="s">
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
         <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>68</v>
       </c>
       <c r="B39" t="s">
         <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
         <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>69</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
         <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>70</v>
       </c>
       <c r="B41" t="s">
         <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
         <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>71</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
         <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>72</v>
       </c>
       <c r="B43" t="s">
         <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
         <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>73</v>
       </c>
       <c r="B44" t="s">
         <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
         <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>74</v>
       </c>
       <c r="B45" t="s">
         <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
         <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>75</v>
       </c>
       <c r="B46" t="s">
         <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
         <v>93</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>76</v>
       </c>
       <c r="B47" t="s">
         <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
         <v>95</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>77</v>
       </c>
       <c r="B48" t="s">
         <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
         <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>78</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
         <v>99</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>79</v>
       </c>
       <c r="B50" t="s">
         <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
         <v>101</v>
       </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>80</v>
+      </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>81</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
         <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>82</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
         <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>83</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
         <v>108</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>85</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
         <v>110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
         <v>112</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>87</v>
       </c>
       <c r="B57" t="s">
         <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
         <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>88</v>
       </c>
       <c r="B58" t="s">
         <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
         <v>116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>89</v>
       </c>
       <c r="B59" t="s">
         <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
         <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>90</v>
       </c>
       <c r="B60" t="s">
         <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
         <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>91</v>
       </c>
       <c r="B61" t="s">
         <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
         <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>93</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
         <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>94</v>
       </c>
       <c r="B63" t="s">
         <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
         <v>126</v>
+      </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>95</v>
       </c>
       <c r="B64" t="s">
         <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
         <v>128</v>
+      </c>
+      <c r="D64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>96</v>
       </c>
       <c r="B65" t="s">
         <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
         <v>130</v>
+      </c>
+      <c r="D65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>97</v>
       </c>
       <c r="B66" t="s">
         <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
         <v>132</v>
+      </c>
+      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>98</v>
       </c>
       <c r="B67" t="s">
         <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
         <v>134</v>
+      </c>
+      <c r="D67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>99</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
         <v>136</v>
+      </c>
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>100</v>
       </c>
       <c r="B69" t="s">
         <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
         <v>138</v>
+      </c>
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>101</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
         <v>140</v>
+      </c>
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>102</v>
       </c>
       <c r="B71" t="s">
         <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
         <v>142</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>103</v>
       </c>
       <c r="B72" t="s">
         <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>19</v>
+        <v>144</v>
+      </c>
+      <c r="D72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>104</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/QA.xlsx
+++ b/QA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
   <si>
     <t xml:space="preserve">ID		</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>Распределение студентов происходит случайным образом.</t>
+  </si>
+  <si>
+    <t>список абитуриент питирать</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://spb.hse.ru/ba/naimlist</t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,6 +1819,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>106</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QA.xlsx
+++ b/QA.xlsx
@@ -77,12 +77,6 @@
     <t>Скорее всего, это не имеет особого значения. Но не забывайте, что один файл PDF не должен превышать 10 мб.</t>
   </si>
   <si>
-    <t>список абитуриент санкт-петербург санкт- петербург</t>
-  </si>
-  <si>
-    <t>https://spb.hse.ru/ba/naimlist</t>
-  </si>
-  <si>
     <t xml:space="preserve">телефон приемной комиссия </t>
   </si>
   <si>
@@ -442,6 +436,12 @@
   </si>
   <si>
     <t>Распределение студентов происходит случайным образом.</t>
+  </si>
+  <si>
+    <t>учебный офис программный инженерия</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.hse.ru/ba/se/ed_dep/</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
         <v>68</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
         <v>76</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
         <v>78</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
         <v>82</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
         <v>86</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
         <v>88</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
         <v>90</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
         <v>92</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
         <v>94</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
         <v>96</v>
@@ -1453,13 +1453,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>
@@ -1467,21 +1467,21 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
         <v>100</v>
       </c>
-      <c r="C50" t="s">
-        <v>29</v>
-      </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
         <v>113</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
         <v>115</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
         <v>117</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
         <v>119</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
         <v>121</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
         <v>125</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
         <v>127</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
         <v>129</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
         <v>131</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
         <v>133</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
         <v>137</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
